--- a/testCasesAutomation-Practice-Form.xlsx
+++ b/testCasesAutomation-Practice-Form.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asmiatek\source\repos\smiatek\test2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asmiatek\source\repos\Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1C0088-2E07-449F-B7E8-4B09110CD7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E79355B-22AD-45D6-9FDD-163C1BDCC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F4E55C2F-95FE-48BE-B8B3-80D2EA5A2DC3}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="46">
   <si>
     <t>steps:</t>
   </si>
@@ -102,13 +101,7 @@
     <t>Lack of data in "Mobile" field</t>
   </si>
   <si>
-    <t>Result (passed/failed)</t>
-  </si>
-  <si>
     <t>User registered sucessfully</t>
-  </si>
-  <si>
-    <t>error in form validation</t>
   </si>
   <si>
     <t>User not registered</t>
@@ -189,12 +182,30 @@
 2.Click "Submit" button
 3. Verify response/validations</t>
   </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Result (Passed/Failed)</t>
+  </si>
+  <si>
+    <t>Failed - validation information was not displayed, user got registration summary as student was registered succesfully</t>
+  </si>
+  <si>
+    <t>Failed - it was possible to register student with date of birth in the future, validation information was not displayed, user got registration summary as student was registered succesfully</t>
+  </si>
+  <si>
+    <t>Error in form validation</t>
+  </si>
+  <si>
+    <t>Failed - after performing step 1b. (clicking "X" button), website went blank. Because of that form was not submitted</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,13 +214,39 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -230,19 +267,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Dobry" xfId="1" builtinId="26"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Zły" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -258,12 +305,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE647831-BD4A-4A59-902F-8BF80CF585F1}" name="Tabela3" displayName="Tabela3" ref="A1:C50" totalsRowShown="0">
-  <autoFilter ref="A1:C50" xr:uid="{DE647831-BD4A-4A59-902F-8BF80CF585F1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE647831-BD4A-4A59-902F-8BF80CF585F1}" name="Tabela3" displayName="Tabela3" ref="A1:C51" totalsRowShown="0">
+  <autoFilter ref="A1:C51" xr:uid="{DE647831-BD4A-4A59-902F-8BF80CF585F1}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{0984ED57-7836-4179-8BCE-A29E6F2F232F}" name="Kolumna1"/>
     <tableColumn id="2" xr3:uid="{C5F143FB-3939-42D0-B03D-93D7F53DA8B9}" name="Kolumna2"/>
-    <tableColumn id="3" xr3:uid="{DACB808E-47E3-4069-B4F0-DB221BBF1DA8}" name="Result (passed/failed)"/>
+    <tableColumn id="3" xr3:uid="{DACB808E-47E3-4069-B4F0-DB221BBF1DA8}" name="Result (Passed/Failed)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -566,17 +613,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7B467C-61FA-4DCB-817B-F90B076267FC}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -591,7 +638,7 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -615,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -623,7 +670,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -631,9 +681,9 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -648,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -656,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -664,7 +714,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -672,9 +725,9 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -697,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -705,7 +758,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -713,9 +769,9 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -738,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -746,7 +802,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -754,9 +813,9 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -779,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -787,7 +846,10 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -795,9 +857,9 @@
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -820,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,7 +890,10 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -836,9 +901,9 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -853,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -861,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -869,7 +934,10 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -877,9 +945,9 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -894,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -902,15 +970,18 @@
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -918,16 +989,16 @@
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -943,60 +1014,72 @@
         <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>33</v>
+      <c r="B45" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B49" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>2</v>
       </c>
-      <c r="B49" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
